--- a/R-package/data/tmp/github/test/Excel_set_pass.xlsx
+++ b/R-package/data/tmp/github/test/Excel_set_pass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setPart1" sheetId="6" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>label</t>
   </si>
@@ -243,6 +243,48 @@
   </si>
   <si>
     <t>Excel_part_pass</t>
+  </si>
+  <si>
+    <t>some data</t>
+  </si>
+  <si>
+    <t>NoSheetForSetPart</t>
+  </si>
+  <si>
+    <t>Should Fail</t>
+  </si>
+  <si>
+    <t>ShouldFailNoSheetInSet</t>
+  </si>
+  <si>
+    <t>fail/</t>
+  </si>
+  <si>
+    <t>setInSetsFail</t>
+  </si>
+  <si>
+    <t>testing warning</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>hasNoSheet</t>
+  </si>
+  <si>
+    <t>test part for fail</t>
+  </si>
+  <si>
+    <t>NoPartInfoForSet</t>
+  </si>
+  <si>
+    <t>ShouldFailNoPartInfoInSet</t>
+  </si>
+  <si>
+    <t>setInSetsFailWithSheet</t>
+  </si>
+  <si>
+    <t>hasNoPartInfo</t>
   </si>
 </sst>
 </file>
@@ -250,11 +292,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,8 +327,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +550,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -513,7 +569,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -522,9 +584,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
-   NA 
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/R-package/data/tmp/github/test/Excel_set_pass.xlsx
+++ b/R-package/data/tmp/github/test/Excel_set_pass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="setPart1" sheetId="6" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>label</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>hasNoPartInfo</t>
+  </si>
+  <si>
+    <t>something;somethingElse</t>
   </si>
 </sst>
 </file>
